--- a/biology/Botanique/Garhiofilatum/Garhiofilatum.xlsx
+++ b/biology/Botanique/Garhiofilatum/Garhiofilatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le garhiofilatum est un vin blanc doux de qualité, élevé avec plus d'une dizaine d'épices et plantes naturelles précieuses. C'est un vin médiéval, encore nommé vin ancestral.
 </t>
@@ -511,11 +523,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les traces écrites montrent que la « recette » de ce vin remonte en l'an 1249.
-Sa fabrication était faite dans la région de Montpellier, dont le port de Lattes recevait les épices venues d'Orient. Sa renommée fut telle que Henri III d'Angleterre s'en fournissait pour sa table[1]. C'est d'ailleurs un document relatif à une commande de ce seigneur qui nous fournit la première mention et recette de ce vin.
-Le nom "garhiofilatum" est un mot du latin médiéval désignant le clou de girofle, épice reine des vins épicés médiévaux; cependant le goût de cette épice est ici très subtil[2].
+Sa fabrication était faite dans la région de Montpellier, dont le port de Lattes recevait les épices venues d'Orient. Sa renommée fut telle que Henri III d'Angleterre s'en fournissait pour sa table. C'est d'ailleurs un document relatif à une commande de ce seigneur qui nous fournit la première mention et recette de ce vin.
+Le nom "garhiofilatum" est un mot du latin médiéval désignant le clou de girofle, épice reine des vins épicés médiévaux; cependant le goût de cette épice est ici très subtil.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dès le XIIe siècle, Montpellier réunit toutes les conditions nécessaires pour être une ville de renom dans le mariage du vin et des plantes et épices rares, dont le safran[3]. Les vins des régions de langue d'oc étaient à l'époque les plus renommés avec ceux de Bourgogne, ils étaient connus dans toute l'Europe, et Montpellier était la principale plate-forme de distribution des épices en France, en tant que principal port du royaume[4]. Le garhiofilatum est l'expression de ce savoir-faire qui s'exporte alors déjà au-delà des frontières.[non neutre]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès le XIIe siècle, Montpellier réunit toutes les conditions nécessaires pour être une ville de renom dans le mariage du vin et des plantes et épices rares, dont le safran. Les vins des régions de langue d'oc étaient à l'époque les plus renommés avec ceux de Bourgogne, ils étaient connus dans toute l'Europe, et Montpellier était la principale plate-forme de distribution des épices en France, en tant que principal port du royaume. Le garhiofilatum est l'expression de ce savoir-faire qui s'exporte alors déjà au-delà des frontières.[non neutre]
 </t>
         </is>
       </c>
@@ -575,16 +591,88 @@
           <t>Technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le garhiofilatum est issu d'une macération de vin, d'épices et de plantes rares. Il se classe dans la catégorie des vins ancestraux. Il s'agit d'une technique viti-vinicole reconnue qui tire ses lettres de noblesse il y a plus de sept siècles, en France. Il réclame bien plus d'attention à produire qu'un vin classique. La macération des plantes et des épices dans le vin dure plusieurs mois avant toute mise en bouteille[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le garhiofilatum est issu d'une macération de vin, d'épices et de plantes rares. Il se classe dans la catégorie des vins ancestraux. Il s'agit d'une technique viti-vinicole reconnue qui tire ses lettres de noblesse il y a plus de sept siècles, en France. Il réclame bien plus d'attention à produire qu'un vin classique. La macération des plantes et des épices dans le vin dure plusieurs mois avant toute mise en bouteille.
 Ainsi, s'y retrouvent plus d'une dizaine d'épices parmi les plus précieuses. Par exemple, s'y trouve l'épice la plus chère au monde[Laquelle ?]. L'utilisation de plantes et d'épices se réalise pendant quelques phases de l'élevage du vin. Chaque plante a un impact différent. Fonction de l'origine, du temps ou de la quantité, elles révèlent des caractéristiques variables. Au bon dosage, elles agissent en symbiose avec la base de vin. Ainsi, l'usage des plantes permet notamment de conserver le vin de façon naturelle.
-De même, la base de vin est très particulière car issue d'un cépage antérieur au XVe siècle. Il s'agit d'un vin naturellement doux. Ce vin se vendange à la main car très délicat. Il n'y a donc aucun ajout de sucre, colorant ou quelconque arôme[5].
-Commerce
-Après cinq ans de recherches, un couple montpelliérain a retrouvé la recette et la technique de ce vin tombé dans l'oubli pendant plus de sept siècles. Avec l'expertise de l'un des plus anciens domaines viticoles de la région de Montpellier, ce couple est le seul à détenir la recette originelle du garhiofilatum[2].
-Sa propriété (droit de marque), son élaboration et sa commercialisation sont détenus par un domaine viticole à Villeneuve-lès-Maguelonne[1],[6].
-Recette rapide
-Il est possible de se concocter un breuvage dont le goût est très rapprochant -mais néanmoins différent de par une macération plus rapide- chez soi [7].
+De même, la base de vin est très particulière car issue d'un cépage antérieur au XVe siècle. Il s'agit d'un vin naturellement doux. Ce vin se vendange à la main car très délicat. Il n'y a donc aucun ajout de sucre, colorant ou quelconque arôme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Garhiofilatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garhiofilatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Commerce</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après cinq ans de recherches, un couple montpelliérain a retrouvé la recette et la technique de ce vin tombé dans l'oubli pendant plus de sept siècles. Avec l'expertise de l'un des plus anciens domaines viticoles de la région de Montpellier, ce couple est le seul à détenir la recette originelle du garhiofilatum.
+Sa propriété (droit de marque), son élaboration et sa commercialisation sont détenus par un domaine viticole à Villeneuve-lès-Maguelonne,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Garhiofilatum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garhiofilatum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recette rapide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible de se concocter un breuvage dont le goût est très rapprochant -mais néanmoins différent de par une macération plus rapide- chez soi .
 Comme tous les vins et apéritifs maison, chacun y va de sa variation, une recette peut donc être la suivante :
 Faire tiédir 150 cl de vin blanc additionné de 100 g de miel.
 Pendant que le mélange tiédit, préparer dans une étamine ou une mousseline 50 g de gingembre, 20 g de cannelle, 8 gousses de cardamome, 10 g de clous de girofle et 20 g de racines de valériane. Ces herbes et épices doivent être grossièrement broyées ou concassées, mais évitez les poudres, surtout pour le gingembre ou la cannelle, au risque d'obtenir un goût très fort et un filtrage peu efficace.
@@ -595,33 +683,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Garhiofilatum</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Garhiofilatum</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Dégustation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le garhiofilatum est doux. Il accompagne aisément apéritifs, desserts, mets délicats[Quoi ?] ou foie gras[3],[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le garhiofilatum est doux. Il accompagne aisément apéritifs, desserts, mets délicats[Quoi ?] ou foie gras,.
 </t>
         </is>
       </c>
